--- a/myPapers/NFES_Review/_jupyterPlots/deltaErrors.xlsx
+++ b/myPapers/NFES_Review/_jupyterPlots/deltaErrors.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\NFES_Review\_jupyterPlots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_Thesis/myPapers/NFES_Review/_jupyterPlots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0450A-8DE7-4DAF-85F7-B34D93ADDB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{F0E0450A-8DE7-4DAF-85F7-B34D93ADDB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E5D7F1E-EA68-4ED7-A22D-AE99F1842C03}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12135" windowHeight="11385" xr2:uid="{DA9E80A8-F6DD-45B3-A7FC-79AA849154BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DA9E80A8-F6DD-45B3-A7FC-79AA849154BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="15">
   <si>
     <t>Reference</t>
   </si>
@@ -445,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B74E9-4996-4CE6-B1B8-5F6373B355B6}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,4 +3180,825 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CF5676-9F88-46AA-9A09-4F67846013B6}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>63.16</v>
+      </c>
+      <c r="D2">
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="E2">
+        <v>2.8307692307692358</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>64.59</v>
+      </c>
+      <c r="D3">
+        <v>0.40999999999999659</v>
+      </c>
+      <c r="E3">
+        <v>0.63076923076922553</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>63.21</v>
+      </c>
+      <c r="D4">
+        <v>1.7899999999999991</v>
+      </c>
+      <c r="E4">
+        <v>2.7538461538461525</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>60.53</v>
+      </c>
+      <c r="D5">
+        <v>4.4699999999999989</v>
+      </c>
+      <c r="E5">
+        <v>6.8769230769230747</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>60.53</v>
+      </c>
+      <c r="D6">
+        <v>4.4699999999999989</v>
+      </c>
+      <c r="E6">
+        <v>6.8769230769230747</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="C7">
+        <v>290.32</v>
+      </c>
+      <c r="D7">
+        <v>-8.2199999999999704</v>
+      </c>
+      <c r="E7">
+        <v>2.9138603332151609</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="C8">
+        <v>290.32</v>
+      </c>
+      <c r="D8">
+        <v>-8.2199999999999704</v>
+      </c>
+      <c r="E8">
+        <v>2.9138603332151609</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="C9">
+        <v>295.7</v>
+      </c>
+      <c r="D9">
+        <v>-13.599999999999966</v>
+      </c>
+      <c r="E9">
+        <v>4.8209854661467437</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="C10">
+        <v>296.14</v>
+      </c>
+      <c r="D10">
+        <v>-14.039999999999964</v>
+      </c>
+      <c r="E10">
+        <v>4.9769585253456086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="C11">
+        <v>301.08</v>
+      </c>
+      <c r="D11">
+        <v>-18.979999999999961</v>
+      </c>
+      <c r="E11">
+        <v>6.7281105990783265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="C12">
+        <v>295.89</v>
+      </c>
+      <c r="D12">
+        <v>-13.789999999999964</v>
+      </c>
+      <c r="E12">
+        <v>4.8883374689826171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>490.3</v>
+      </c>
+      <c r="C13">
+        <v>493.51</v>
+      </c>
+      <c r="D13">
+        <v>-3.2099999999999795</v>
+      </c>
+      <c r="E13">
+        <v>0.65470120334488668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>490.3</v>
+      </c>
+      <c r="C14">
+        <v>503.11</v>
+      </c>
+      <c r="D14">
+        <v>-12.810000000000002</v>
+      </c>
+      <c r="E14">
+        <v>2.6126861105445651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>490.3</v>
+      </c>
+      <c r="C15">
+        <v>497.62</v>
+      </c>
+      <c r="D15">
+        <v>-7.3199999999999932</v>
+      </c>
+      <c r="E15">
+        <v>1.4929634917397496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>490.3</v>
+      </c>
+      <c r="C16">
+        <v>498.19</v>
+      </c>
+      <c r="D16">
+        <v>-7.8899999999999864</v>
+      </c>
+      <c r="E16">
+        <v>1.6092188456047292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>490.3</v>
+      </c>
+      <c r="C17">
+        <v>508.11</v>
+      </c>
+      <c r="D17">
+        <v>-17.810000000000002</v>
+      </c>
+      <c r="E17">
+        <v>3.6324699163777288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>490.3</v>
+      </c>
+      <c r="C18">
+        <v>493.2</v>
+      </c>
+      <c r="D18">
+        <v>-2.8999999999999773</v>
+      </c>
+      <c r="E18">
+        <v>0.5914746073832301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>490.3</v>
+      </c>
+      <c r="C19">
+        <v>493.2</v>
+      </c>
+      <c r="D19">
+        <v>-2.8999999999999773</v>
+      </c>
+      <c r="E19">
+        <v>0.5914746073832301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>706.6</v>
+      </c>
+      <c r="C20">
+        <v>691.49</v>
+      </c>
+      <c r="D20">
+        <v>15.110000000000014</v>
+      </c>
+      <c r="E20">
+        <v>2.1384092838947089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>706.6</v>
+      </c>
+      <c r="C21">
+        <v>691.57</v>
+      </c>
+      <c r="D21">
+        <v>15.029999999999973</v>
+      </c>
+      <c r="E21">
+        <v>2.12708746108123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>706.6</v>
+      </c>
+      <c r="C22">
+        <v>691.49</v>
+      </c>
+      <c r="D22">
+        <v>15.110000000000014</v>
+      </c>
+      <c r="E22">
+        <v>2.1384092838947089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>706.6</v>
+      </c>
+      <c r="C23">
+        <v>688.91</v>
+      </c>
+      <c r="D23">
+        <v>17.690000000000055</v>
+      </c>
+      <c r="E23">
+        <v>2.5035380696292178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>706.6</v>
+      </c>
+      <c r="C24">
+        <v>686.17</v>
+      </c>
+      <c r="D24">
+        <v>20.430000000000064</v>
+      </c>
+      <c r="E24">
+        <v>2.8913105009906683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>706.6</v>
+      </c>
+      <c r="C25">
+        <v>681.27</v>
+      </c>
+      <c r="D25">
+        <v>25.330000000000041</v>
+      </c>
+      <c r="E25">
+        <v>3.5847721483158845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>706.6</v>
+      </c>
+      <c r="C26">
+        <v>675.53</v>
+      </c>
+      <c r="D26">
+        <v>31.07000000000005</v>
+      </c>
+      <c r="E26">
+        <v>4.3971129351825713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+      <c r="C27">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="D27">
+        <v>-3.339999999999975</v>
+      </c>
+      <c r="E27">
+        <v>1.1133333333333251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>300</v>
+      </c>
+      <c r="C28">
+        <v>343.32</v>
+      </c>
+      <c r="D28">
+        <v>-43.319999999999993</v>
+      </c>
+      <c r="E28">
+        <v>14.439999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>300</v>
+      </c>
+      <c r="C29">
+        <v>325.39999999999998</v>
+      </c>
+      <c r="D29">
+        <v>-25.399999999999977</v>
+      </c>
+      <c r="E29">
+        <v>8.4666666666666579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>25000</v>
+      </c>
+      <c r="C30">
+        <v>22682.87</v>
+      </c>
+      <c r="D30">
+        <v>2317.130000000001</v>
+      </c>
+      <c r="E30">
+        <v>9.2685200000000041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>25000</v>
+      </c>
+      <c r="C31">
+        <v>22985.75</v>
+      </c>
+      <c r="D31">
+        <v>2014.25</v>
+      </c>
+      <c r="E31">
+        <v>8.0570000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>5470</v>
+      </c>
+      <c r="C32">
+        <v>5512.39</v>
+      </c>
+      <c r="D32">
+        <v>-42.390000000000327</v>
+      </c>
+      <c r="E32">
+        <v>0.77495429616088352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>5470</v>
+      </c>
+      <c r="C33">
+        <v>5726.58</v>
+      </c>
+      <c r="D33">
+        <v>-256.57999999999993</v>
+      </c>
+      <c r="E33">
+        <v>4.6906764168190112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>40000</v>
+      </c>
+      <c r="C34">
+        <v>41251.42</v>
+      </c>
+      <c r="D34">
+        <v>-1251.4199999999983</v>
+      </c>
+      <c r="E34">
+        <v>3.1285499999999957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>40000</v>
+      </c>
+      <c r="C35">
+        <v>42569.96</v>
+      </c>
+      <c r="D35">
+        <v>-2569.9599999999991</v>
+      </c>
+      <c r="E35">
+        <v>6.4248999999999974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>40000</v>
+      </c>
+      <c r="C36">
+        <v>36574.04</v>
+      </c>
+      <c r="D36">
+        <v>3425.9599999999991</v>
+      </c>
+      <c r="E36">
+        <v>8.564899999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>344</v>
+      </c>
+      <c r="C37">
+        <v>378.38</v>
+      </c>
+      <c r="D37">
+        <v>-34.379999999999995</v>
+      </c>
+      <c r="E37">
+        <v>9.9941860465116275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>344</v>
+      </c>
+      <c r="C38">
+        <v>358.36</v>
+      </c>
+      <c r="D38">
+        <v>-14.360000000000014</v>
+      </c>
+      <c r="E38">
+        <v>4.1744186046511667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>344</v>
+      </c>
+      <c r="C39">
+        <v>351.35</v>
+      </c>
+      <c r="D39">
+        <v>-7.3500000000000227</v>
+      </c>
+      <c r="E39">
+        <v>2.1366279069767509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>214</v>
+      </c>
+      <c r="C40">
+        <v>230.13</v>
+      </c>
+      <c r="D40">
+        <v>-16.129999999999995</v>
+      </c>
+      <c r="E40">
+        <v>7.5373831775700912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>214</v>
+      </c>
+      <c r="C41">
+        <v>216.64</v>
+      </c>
+      <c r="D41">
+        <v>-2.6399999999999864</v>
+      </c>
+      <c r="E41">
+        <v>1.2336448598130778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>214</v>
+      </c>
+      <c r="C42">
+        <v>223.38</v>
+      </c>
+      <c r="D42">
+        <v>-9.3799999999999955</v>
+      </c>
+      <c r="E42">
+        <v>4.3831775700934559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>214</v>
+      </c>
+      <c r="C43">
+        <v>229.73</v>
+      </c>
+      <c r="D43">
+        <v>-15.72999999999999</v>
+      </c>
+      <c r="E43">
+        <v>7.3504672897196217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>214</v>
+      </c>
+      <c r="C44">
+        <v>229.73</v>
+      </c>
+      <c r="D44">
+        <v>-15.72999999999999</v>
+      </c>
+      <c r="E44">
+        <v>7.3504672897196217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>214</v>
+      </c>
+      <c r="C45">
+        <v>229.73</v>
+      </c>
+      <c r="D45">
+        <v>-15.72999999999999</v>
+      </c>
+      <c r="E45">
+        <v>7.3504672897196217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>214</v>
+      </c>
+      <c r="C46">
+        <v>216.22</v>
+      </c>
+      <c r="D46">
+        <v>-2.2199999999999989</v>
+      </c>
+      <c r="E46">
+        <v>1.0373831775700928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/myPapers/NFES_Review/_jupyterPlots/deltaErrors.xlsx
+++ b/myPapers/NFES_Review/_jupyterPlots/deltaErrors.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{F0E0450A-8DE7-4DAF-85F7-B34D93ADDB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E5D7F1E-EA68-4ED7-A22D-AE99F1842C03}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DA9E80A8-F6DD-45B3-A7FC-79AA849154BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="9135" xr2:uid="{DA9E80A8-F6DD-45B3-A7FC-79AA849154BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9B74E9-4996-4CE6-B1B8-5F6373B355B6}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A143"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116:E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CF5676-9F88-46AA-9A09-4F67846013B6}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
